--- a/data/output/set12/high_noisy_25/results/dual.xlsx
+++ b/data/output/set12/high_noisy_25/results/dual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set12\high_noisy_25\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CFE17B-02DE-4208-9080-2D0282957A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F0027-E4DA-4FA4-9683-51B587F7765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>06.png</t>
   </si>
@@ -65,105 +65,6 @@
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>21.38</t>
-  </si>
-  <si>
-    <t>0.4793</t>
-  </si>
-  <si>
-    <t>34.65</t>
-  </si>
-  <si>
-    <t>21.67</t>
-  </si>
-  <si>
-    <t>0.4456</t>
-  </si>
-  <si>
-    <t>33.11</t>
-  </si>
-  <si>
-    <t>20.87</t>
-  </si>
-  <si>
-    <t>0.4245</t>
-  </si>
-  <si>
-    <t>31.66</t>
-  </si>
-  <si>
-    <t>20.99</t>
-  </si>
-  <si>
-    <t>0.3806</t>
-  </si>
-  <si>
-    <t>29.52</t>
-  </si>
-  <si>
-    <t>21.18</t>
-  </si>
-  <si>
-    <t>0.3744</t>
-  </si>
-  <si>
-    <t>29.31</t>
-  </si>
-  <si>
-    <t>21.21</t>
-  </si>
-  <si>
-    <t>0.3549</t>
-  </si>
-  <si>
-    <t>28.35</t>
-  </si>
-  <si>
-    <t>21.27</t>
-  </si>
-  <si>
-    <t>0.3279</t>
-  </si>
-  <si>
-    <t>27.03</t>
-  </si>
-  <si>
-    <t>21.02</t>
-  </si>
-  <si>
-    <t>0.3256</t>
-  </si>
-  <si>
-    <t>26.79</t>
-  </si>
-  <si>
-    <t>21.22</t>
-  </si>
-  <si>
-    <t>0.3009</t>
-  </si>
-  <si>
-    <t>25.65</t>
-  </si>
-  <si>
-    <t>21.03</t>
-  </si>
-  <si>
-    <t>0.2902</t>
-  </si>
-  <si>
-    <t>25.02</t>
-  </si>
-  <si>
-    <t>20.72</t>
-  </si>
-  <si>
-    <t>0.2230</t>
-  </si>
-  <si>
-    <t>21.51</t>
   </si>
 </sst>
 </file>
@@ -529,7 +430,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,154 +458,154 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
+      <c r="B2">
+        <v>21.2177878897742</v>
+      </c>
+      <c r="C2">
+        <v>0.30085258307516699</v>
+      </c>
+      <c r="D2">
+        <v>25.651523098645502</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
+      <c r="B3">
+        <v>20.718830391230799</v>
+      </c>
+      <c r="C3">
+        <v>0.22299726156990801</v>
+      </c>
+      <c r="D3">
+        <v>21.509278274110802</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
+      <c r="B4">
+        <v>21.028422294883299</v>
+      </c>
+      <c r="C4">
+        <v>0.29017204658940399</v>
+      </c>
+      <c r="D4">
+        <v>25.0228134769118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
+      <c r="B5">
+        <v>21.1806234225098</v>
+      </c>
+      <c r="C5">
+        <v>0.37435200821245601</v>
+      </c>
+      <c r="D5">
+        <v>29.307912121877699</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+      <c r="B6">
+        <v>21.209860576634</v>
+      </c>
+      <c r="C6">
+        <v>0.35488724896248702</v>
+      </c>
+      <c r="D6">
+        <v>28.349292736441399</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
+      <c r="B7">
+        <v>21.015589314588301</v>
+      </c>
+      <c r="C7">
+        <v>0.32562393824024999</v>
+      </c>
+      <c r="D7">
+        <v>26.788991569306599</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
+      <c r="B8">
+        <v>21.2692343368971</v>
+      </c>
+      <c r="C8">
+        <v>0.32789277526806998</v>
+      </c>
+      <c r="D8">
+        <v>27.029255931851999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
+      <c r="B9">
+        <v>20.868348571033501</v>
+      </c>
+      <c r="C9">
+        <v>0.424455562413104</v>
+      </c>
+      <c r="D9">
+        <v>31.6569524061719</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
+      <c r="B10">
+        <v>21.3773120136225</v>
+      </c>
+      <c r="C10">
+        <v>0.479320039605102</v>
+      </c>
+      <c r="D10">
+        <v>34.654657987066301</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+      <c r="B11">
+        <v>20.985136751275501</v>
+      </c>
+      <c r="C11">
+        <v>0.38055923663531099</v>
+      </c>
+      <c r="D11">
+        <v>29.520530207403301</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
+      <c r="B12">
+        <v>21.671659794954401</v>
+      </c>
+      <c r="C12">
+        <v>0.44556958277284903</v>
+      </c>
+      <c r="D12">
+        <v>33.1143090361196</v>
       </c>
     </row>
   </sheetData>
